--- a/AK/SPERLINGSKAUZ_Herbstbalz_2021_09_27_Zusammenfassung_Rekorder_ALLE.xlsx
+++ b/AK/SPERLINGSKAUZ_Herbstbalz_2021_09_27_Zusammenfassung_Rekorder_ALLE.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="205">
   <si>
     <t>Herbst 2021</t>
   </si>
@@ -853,6 +853,9 @@
   </si>
   <si>
     <t>Bühlauer Waldgärten</t>
+  </si>
+  <si>
+    <t>Sonstige Nachweise</t>
   </si>
 </sst>
 </file>
@@ -1178,9 +1181,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1190,6 +1190,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1475,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,11 +1497,11 @@
     <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="111.140625" customWidth="1"/>
-    <col min="12" max="12" width="45.7109375" customWidth="1"/>
-    <col min="13" max="13" width="33" customWidth="1"/>
+    <col min="12" max="13" width="45.7109375" customWidth="1"/>
+    <col min="14" max="14" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>200</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1522,8 +1525,9 @@
         <v>100</v>
       </c>
       <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>194</v>
       </c>
@@ -1534,25 +1538,27 @@
         <v>101</v>
       </c>
       <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="16" t="s">
         <v>158</v>
       </c>
       <c r="L5" s="16"/>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1590,10 +1596,13 @@
         <v>161</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>40</v>
       </c>
@@ -1618,10 +1627,10 @@
       <c r="H7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="20" t="s">
@@ -1630,11 +1639,12 @@
       <c r="L7" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>41</v>
       </c>
@@ -1659,10 +1669,10 @@
       <c r="H8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -1671,11 +1681,12 @@
       <c r="L8" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="22"/>
+      <c r="N8" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1700,10 +1711,10 @@
       <c r="H9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="36" t="s">
         <v>53</v>
       </c>
       <c r="K9" s="20" t="s">
@@ -1712,11 +1723,12 @@
       <c r="L9" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
@@ -1741,10 +1753,10 @@
       <c r="H10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="20" t="s">
@@ -1753,11 +1765,12 @@
       <c r="L10" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="22"/>
+      <c r="N10" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -1782,10 +1795,10 @@
       <c r="H11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="36" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="21" t="s">
@@ -1794,11 +1807,12 @@
       <c r="L11" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="61.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>42</v>
       </c>
@@ -1823,10 +1837,10 @@
       <c r="H12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="36" t="s">
         <v>59</v>
       </c>
       <c r="K12" s="21" t="s">
@@ -1835,11 +1849,12 @@
       <c r="L12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>15</v>
       </c>
@@ -1864,10 +1879,10 @@
       <c r="H13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="36" t="s">
         <v>61</v>
       </c>
       <c r="K13" s="20" t="s">
@@ -1876,11 +1891,12 @@
       <c r="L13" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>2</v>
       </c>
@@ -1914,11 +1930,12 @@
       <c r="L14" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>27</v>
       </c>
@@ -1940,10 +1957,10 @@
       <c r="G15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="37" t="s">
         <v>144</v>
       </c>
       <c r="K15" s="22" t="s">
@@ -1952,11 +1969,12 @@
       <c r="L15" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="61.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>37</v>
       </c>
@@ -1990,11 +2008,12 @@
       <c r="L16" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="22"/>
+      <c r="N16" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>3</v>
       </c>
@@ -2028,11 +2047,12 @@
       <c r="L17" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="22"/>
+      <c r="N17" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>39</v>
       </c>
@@ -2066,11 +2086,12 @@
       <c r="L18" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="22"/>
+      <c r="N18" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="53.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="53.25" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>4</v>
       </c>
@@ -2104,11 +2125,12 @@
       <c r="L19" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -2142,11 +2164,12 @@
       <c r="L20" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="22"/>
+      <c r="N20" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>16</v>
       </c>
@@ -2180,11 +2203,12 @@
       <c r="L21" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>5</v>
       </c>
@@ -2218,11 +2242,12 @@
       <c r="L22" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="22"/>
+      <c r="N22" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="35.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="35.25" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>9</v>
       </c>
@@ -2256,11 +2281,12 @@
       <c r="L23" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="25" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="61.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>8</v>
       </c>
@@ -2294,11 +2320,12 @@
       <c r="L24" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="22"/>
+      <c r="N24" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>13</v>
       </c>
@@ -2332,11 +2359,12 @@
       <c r="L25" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="22"/>
+      <c r="N25" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>14</v>
       </c>
@@ -2370,11 +2398,12 @@
       <c r="L26" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="22"/>
+      <c r="N26" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>12</v>
       </c>
@@ -2396,10 +2425,10 @@
       <c r="G27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="37" t="s">
         <v>144</v>
       </c>
       <c r="K27" s="22" t="s">
@@ -2408,11 +2437,12 @@
       <c r="L27" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="22"/>
+      <c r="N27" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>11</v>
       </c>
@@ -2446,11 +2476,12 @@
       <c r="L28" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="22"/>
+      <c r="N28" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="62.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="62.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
         <v>10</v>
       </c>
@@ -2472,10 +2503,10 @@
       <c r="G29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="38" t="s">
+      <c r="I29" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="37" t="s">
         <v>144</v>
       </c>
       <c r="K29" s="23" t="s">
@@ -2484,11 +2515,12 @@
       <c r="L29" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="22"/>
+      <c r="N29" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>7</v>
       </c>
@@ -2501,26 +2533,28 @@
       <c r="F30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="37" t="s">
         <v>144</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="22" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M30" s="30"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="6"/>
       <c r="C31" s="13"/>
       <c r="F31" s="10"/>
       <c r="K31" s="2"/>
       <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="1:13" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" spans="1:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A32" s="32" t="s">
         <v>189</v>
       </c>
@@ -2529,9 +2563,10 @@
       <c r="F32" s="10"/>
       <c r="K32" s="2"/>
       <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="M32" s="30"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>196</v>
       </c>
       <c r="B33" s="6"/>
@@ -2541,8 +2576,9 @@
       <c r="F33" s="10"/>
       <c r="K33" s="2"/>
       <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2575,8 +2611,9 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M34" s="30"/>
+    </row>
+    <row r="35" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>18</v>
       </c>
@@ -2589,8 +2626,9 @@
       </c>
       <c r="K35" s="31"/>
       <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M35" s="30"/>
+    </row>
+    <row r="36" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>165</v>
       </c>
@@ -2603,8 +2641,9 @@
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M36" s="30"/>
+    </row>
+    <row r="37" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -2617,8 +2656,9 @@
       </c>
       <c r="K37" s="31"/>
       <c r="L37" s="22"/>
-    </row>
-    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M37" s="30"/>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>166</v>
       </c>
@@ -2631,8 +2671,9 @@
       </c>
       <c r="K38" s="31"/>
       <c r="L38" s="22"/>
-    </row>
-    <row r="39" spans="1:12" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="M38" s="30"/>
+    </row>
+    <row r="39" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>43</v>
       </c>
@@ -2645,8 +2686,9 @@
       </c>
       <c r="K39" s="31"/>
       <c r="L39" s="22"/>
-    </row>
-    <row r="40" spans="1:12" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="M39" s="30"/>
+    </row>
+    <row r="40" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>36</v>
       </c>
@@ -2659,8 +2701,9 @@
       </c>
       <c r="K40" s="31"/>
       <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M40" s="30"/>
+    </row>
+    <row r="41" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>20</v>
       </c>
@@ -2673,8 +2716,9 @@
       </c>
       <c r="K41" s="31"/>
       <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M41" s="30"/>
+    </row>
+    <row r="42" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>33</v>
       </c>
@@ -2687,8 +2731,9 @@
       </c>
       <c r="K42" s="31"/>
       <c r="L42" s="22"/>
-    </row>
-    <row r="43" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M42" s="30"/>
+    </row>
+    <row r="43" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>21</v>
       </c>
@@ -2701,8 +2746,9 @@
       </c>
       <c r="K43" s="31"/>
       <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M43" s="30"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>31</v>
       </c>
@@ -2715,8 +2761,9 @@
       </c>
       <c r="K44" s="31"/>
       <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M44" s="30"/>
+    </row>
+    <row r="45" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>22</v>
       </c>
@@ -2729,8 +2776,9 @@
       </c>
       <c r="K45" s="31"/>
       <c r="L45" s="22"/>
-    </row>
-    <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M45" s="30"/>
+    </row>
+    <row r="46" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>34</v>
       </c>
@@ -2743,8 +2791,9 @@
       </c>
       <c r="K46" s="31"/>
       <c r="L46" s="22"/>
-    </row>
-    <row r="47" spans="1:12" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="M46" s="30"/>
+    </row>
+    <row r="47" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>23</v>
       </c>
@@ -2757,8 +2806,9 @@
       </c>
       <c r="K47" s="31"/>
       <c r="L47" s="22"/>
-    </row>
-    <row r="48" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M47" s="30"/>
+    </row>
+    <row r="48" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>168</v>
       </c>
@@ -2771,8 +2821,9 @@
       </c>
       <c r="K48" s="31"/>
       <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="1:12" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="M48" s="30"/>
+    </row>
+    <row r="49" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>7</v>
       </c>
@@ -2788,16 +2839,17 @@
       <c r="F49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="36">
         <v>51.086359999999999</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="36">
         <v>13.868121</v>
       </c>
       <c r="K49" s="31"/>
       <c r="L49" s="22"/>
-    </row>
-    <row r="50" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M49" s="30"/>
+    </row>
+    <row r="50" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>25</v>
       </c>
@@ -2810,8 +2862,9 @@
       </c>
       <c r="K50" s="31"/>
       <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M50" s="30"/>
+    </row>
+    <row r="51" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>169</v>
       </c>
@@ -2824,8 +2877,9 @@
       </c>
       <c r="K51" s="31"/>
       <c r="L51" s="22"/>
-    </row>
-    <row r="52" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M51" s="30"/>
+    </row>
+    <row r="52" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>26</v>
       </c>
@@ -2838,8 +2892,9 @@
       </c>
       <c r="K52" s="31"/>
       <c r="L52" s="22"/>
-    </row>
-    <row r="53" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M52" s="30"/>
+    </row>
+    <row r="53" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>44</v>
       </c>
@@ -2852,8 +2907,9 @@
       </c>
       <c r="K53" s="31"/>
       <c r="L53" s="22"/>
-    </row>
-    <row r="54" spans="1:12" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="M53" s="30"/>
+    </row>
+    <row r="54" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>45</v>
       </c>
@@ -2866,8 +2922,9 @@
       </c>
       <c r="K54" s="31"/>
       <c r="L54" s="22"/>
-    </row>
-    <row r="55" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M54" s="30"/>
+    </row>
+    <row r="55" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>12</v>
       </c>
@@ -2883,16 +2940,17 @@
       <c r="F55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="36">
         <v>51.102108000000001</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="36">
         <v>13.88273</v>
       </c>
       <c r="K55" s="33"/>
       <c r="L55" s="22"/>
-    </row>
-    <row r="56" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M55" s="30"/>
+    </row>
+    <row r="56" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>10</v>
       </c>
@@ -2908,16 +2966,17 @@
       <c r="F56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I56" s="37">
+      <c r="I56" s="36">
         <v>51.093223000000002</v>
       </c>
-      <c r="J56" s="37">
+      <c r="J56" s="36">
         <v>13.900515</v>
       </c>
       <c r="K56" s="33"/>
       <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M56" s="30"/>
+    </row>
+    <row r="57" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>27</v>
       </c>
@@ -2933,17 +2992,18 @@
       <c r="F57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I57" s="37">
+      <c r="I57" s="36">
         <v>51.079129000000002</v>
       </c>
-      <c r="J57" s="37">
+      <c r="J57" s="36">
         <v>13.841673</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="22"/>
-    </row>
-    <row r="58" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
+      <c r="M57" s="30"/>
+    </row>
+    <row r="58" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="39">
         <v>50</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2966,18 +3026,19 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="22"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="30"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
